--- a/results/time/0723_timetest.xlsx
+++ b/results/time/0723_timetest.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF13A3-6450-4954-A4A3-EA06A16AFA04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D6D20C-723C-4875-8207-B3D0D61ADF3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -132,6 +138,2403 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18183573928258967"/>
+          <c:y val="5.118503894400498E-2"/>
+          <c:w val="0.77491010498687662"/>
+          <c:h val="0.69028178769320503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>fast</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14.647337152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.306762027000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.148939992000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.626421735999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.763777019999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.974369287999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.386242438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.874365042000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.163878200999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.330480868000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.168071650000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.268036842000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-658A-4FE1-BBF7-4DFB62BE5E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>full</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>24.566520881652782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.769531774520843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.378151702880615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.98045787811239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.51840033531138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142.69480366706824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-658A-4FE1-BBF7-4DFB62BE5E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1876282000"/>
+        <c:axId val="1955537088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1876282000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>graph</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955537088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955537088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>training time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876282000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72777777777777775"/>
+          <c:y val="7.7682351561724872E-2"/>
+          <c:w val="0.2058153980752406"/>
+          <c:h val="0.27647915144627538"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19572462817147857"/>
+          <c:y val="5.1184890548475255E-2"/>
+          <c:w val="0.7610212160979879"/>
+          <c:h val="0.69028178769320503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>fast</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.136564636230468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16688332557678179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.151523351669311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18446655273437462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20114808082580521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21161189079284642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23406419754028263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26806774139404232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31612143516540481</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3521779537200922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40036225318908658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50455408096313414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C87C-40FB-A9A8-CEFCAB372A2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>full</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$C$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.11303329467773379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14642219543456983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1657616615295408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18448076248168921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19604010581970141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18789739608764622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C87C-40FB-A9A8-CEFCAB372A2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1876282000"/>
+        <c:axId val="1955537088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1876282000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>graph</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955537088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955537088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>training time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876282000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21666666666666665"/>
+          <c:y val="6.8518548583488922E-2"/>
+          <c:w val="0.16414873140857392"/>
+          <c:h val="0.27647915144627538"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131168BF-3552-4A16-AADD-B58B0AEE04BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B475C4CE-80C5-4EF1-884A-41AF9FBB3CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -395,21 +2798,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -435,74 +2838,71 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2">
-        <v>35</v>
-      </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2">
-        <v>45</v>
-      </c>
-      <c r="Q2">
         <v>50</v>
       </c>
-      <c r="R2">
-        <v>55</v>
-      </c>
-      <c r="S2">
-        <v>60</v>
-      </c>
-      <c r="T2">
-        <v>65</v>
-      </c>
-      <c r="U2">
-        <v>70</v>
-      </c>
-      <c r="V2">
-        <v>75</v>
-      </c>
-      <c r="W2">
-        <v>80</v>
-      </c>
-      <c r="X2">
-        <v>85</v>
-      </c>
-      <c r="Y2">
-        <v>90</v>
-      </c>
-      <c r="Z2">
-        <v>95</v>
-      </c>
-      <c r="AA2">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>22.4</v>
+      </c>
+      <c r="E3">
+        <v>30.6</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>42.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>24.566520881652782</v>
+      </c>
+      <c r="D4">
+        <v>41.769531774520843</v>
+      </c>
+      <c r="E4">
+        <v>86.378151702880615</v>
+      </c>
+      <c r="F4">
+        <v>114.98045787811239</v>
+      </c>
+      <c r="G4">
+        <v>184.51840033531138</v>
+      </c>
+      <c r="H4">
+        <v>142.69480366706824</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -528,74 +2928,71 @@
         <v>20</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6">
-        <v>35</v>
-      </c>
-      <c r="O6">
-        <v>40</v>
-      </c>
-      <c r="P6">
-        <v>45</v>
-      </c>
-      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="R6">
-        <v>55</v>
-      </c>
-      <c r="S6">
-        <v>60</v>
-      </c>
-      <c r="T6">
-        <v>65</v>
-      </c>
-      <c r="U6">
-        <v>70</v>
-      </c>
-      <c r="V6">
-        <v>75</v>
-      </c>
-      <c r="W6">
-        <v>80</v>
-      </c>
-      <c r="X6">
-        <v>85</v>
-      </c>
-      <c r="Y6">
-        <v>90</v>
-      </c>
-      <c r="Z6">
-        <v>95</v>
-      </c>
-      <c r="AA6">
-        <v>100</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>22.4</v>
+      </c>
+      <c r="E7">
+        <v>30.6</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>42.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8">
+        <v>0.11303329467773379</v>
+      </c>
+      <c r="D8">
+        <v>0.14642219543456983</v>
+      </c>
+      <c r="E8">
+        <v>0.1657616615295408</v>
+      </c>
+      <c r="F8">
+        <v>0.18448076248168921</v>
+      </c>
+      <c r="G8">
+        <v>0.19604010581970141</v>
+      </c>
+      <c r="H8">
+        <v>0.18789739608764622</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -621,74 +3018,107 @@
         <v>20</v>
       </c>
       <c r="I10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10">
-        <v>35</v>
-      </c>
-      <c r="O10">
-        <v>40</v>
-      </c>
-      <c r="P10">
-        <v>45</v>
-      </c>
-      <c r="Q10">
         <v>50</v>
       </c>
-      <c r="R10">
-        <v>55</v>
-      </c>
-      <c r="S10">
-        <v>60</v>
-      </c>
-      <c r="T10">
-        <v>65</v>
-      </c>
-      <c r="U10">
-        <v>70</v>
-      </c>
-      <c r="V10">
-        <v>75</v>
-      </c>
-      <c r="W10">
-        <v>80</v>
-      </c>
-      <c r="X10">
-        <v>85</v>
-      </c>
-      <c r="Y10">
-        <v>90</v>
-      </c>
-      <c r="Z10">
-        <v>95</v>
-      </c>
-      <c r="AA10">
-        <v>100</v>
-      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>22.4</v>
+      </c>
+      <c r="E11">
+        <v>30.6</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>42.6</v>
+      </c>
+      <c r="I11">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>92.2</v>
+      </c>
+      <c r="K11">
+        <v>117.4</v>
+      </c>
+      <c r="L11">
+        <v>156.4</v>
+      </c>
+      <c r="M11">
+        <v>200.6</v>
+      </c>
+      <c r="N11">
+        <v>244</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
+      <c r="C12">
+        <v>14.647337152</v>
+      </c>
+      <c r="D12">
+        <v>21.306762027000001</v>
+      </c>
+      <c r="E12">
+        <v>25.148939992000003</v>
+      </c>
+      <c r="F12">
+        <v>27.626421735999998</v>
+      </c>
+      <c r="G12">
+        <v>17.763777019999999</v>
+      </c>
+      <c r="H12">
+        <v>20.974369287999998</v>
+      </c>
+      <c r="I12">
+        <v>26.386242438</v>
+      </c>
+      <c r="J12">
+        <v>30.874365042000001</v>
+      </c>
+      <c r="K12">
+        <v>28.163878200999999</v>
+      </c>
+      <c r="L12">
+        <v>62.330480868000009</v>
+      </c>
+      <c r="M12">
+        <v>46.168071650000002</v>
+      </c>
+      <c r="N12">
+        <v>61.268036842000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -714,76 +3144,110 @@
         <v>20</v>
       </c>
       <c r="I14">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N14">
-        <v>35</v>
-      </c>
-      <c r="O14">
-        <v>40</v>
-      </c>
-      <c r="P14">
-        <v>45</v>
-      </c>
-      <c r="Q14">
         <v>50</v>
       </c>
-      <c r="R14">
-        <v>55</v>
-      </c>
-      <c r="S14">
-        <v>60</v>
-      </c>
-      <c r="T14">
-        <v>65</v>
-      </c>
-      <c r="U14">
-        <v>70</v>
-      </c>
-      <c r="V14">
-        <v>75</v>
-      </c>
-      <c r="W14">
-        <v>80</v>
-      </c>
-      <c r="X14">
-        <v>85</v>
-      </c>
-      <c r="Y14">
-        <v>90</v>
-      </c>
-      <c r="Z14">
-        <v>95</v>
-      </c>
-      <c r="AA14">
-        <v>100</v>
-      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>22.4</v>
+      </c>
+      <c r="E15">
+        <v>30.6</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>42.6</v>
+      </c>
+      <c r="I15">
+        <v>67</v>
+      </c>
+      <c r="J15">
+        <v>92.2</v>
+      </c>
+      <c r="K15">
+        <v>117.4</v>
+      </c>
+      <c r="L15">
+        <v>156.4</v>
+      </c>
+      <c r="M15">
+        <v>200.6</v>
+      </c>
+      <c r="N15">
+        <v>244</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.136564636230468</v>
+      </c>
+      <c r="D16">
+        <v>0.16688332557678179</v>
+      </c>
+      <c r="E16">
+        <v>0.151523351669311</v>
+      </c>
+      <c r="F16">
+        <v>0.18446655273437462</v>
+      </c>
+      <c r="G16">
+        <v>0.20114808082580521</v>
+      </c>
+      <c r="H16">
+        <v>0.21161189079284642</v>
+      </c>
+      <c r="I16">
+        <v>0.23406419754028263</v>
+      </c>
+      <c r="J16">
+        <v>0.26806774139404232</v>
+      </c>
+      <c r="K16">
+        <v>0.31612143516540481</v>
+      </c>
+      <c r="L16">
+        <v>0.3521779537200922</v>
+      </c>
+      <c r="M16">
+        <v>0.40036225318908658</v>
+      </c>
+      <c r="N16">
+        <v>0.50455408096313414</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>